--- a/templates/accounting_validation_template.xlsx
+++ b/templates/accounting_validation_template.xlsx
@@ -11,13 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>testcase</t>
-  </si>
-  <si>
-    <t>table_selector</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>event_module</t>
   </si>
@@ -498,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -507,35 +501,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="11" width="16" customWidth="1"/>
-    <col min="12" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="26" customWidth="1"/>
-    <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="18" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="20" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="34" width="14" customWidth="1"/>
-    <col min="35" max="35" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="9" width="16" customWidth="1"/>
+    <col min="10" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="26" customWidth="1"/>
+    <col min="24" max="24" width="25" customWidth="1"/>
+    <col min="25" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="18" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="20" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,12 +626,6 @@
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
